--- a/贷款买房真实价格计算器.xlsx
+++ b/贷款买房真实价格计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D87F0-C4D3-423D-B35C-943909BBC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC271F-D7F8-4A04-A4F6-16AFA61739C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>tc={EACA7E92-1893-4FA3-8E21-54B4B24A3520}</author>
   </authors>
   <commentList>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{EACA7E92-1893-4FA3-8E21-54B4B24A3520}">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{EACA7E92-1893-4FA3-8E21-54B4B24A3520}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,35 +175,6 @@
   </si>
   <si>
     <t>30年宜居年限，平均每月金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注：填写</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝底</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的表格即可</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,6 +573,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>注：填写</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的单元格即可</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -612,7 +612,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,13 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -815,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1105,19 +1098,6 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1325,8 +1305,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1339,7 +1362,7 @@
       </diagonal>
     </border>
     <border diagonalDown="1">
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1357,7 +1380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1374,9 +1397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1452,10 +1472,266 @@
     <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,383 +1746,136 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1855,29 +1884,35 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,7 +2214,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A33" dT="2026-01-15T04:51:43.20" personId="{F1FF34E4-A910-42A3-B1F0-2AC838CF81E1}" id="{EACA7E92-1893-4FA3-8E21-54B4B24A3520}">
+  <threadedComment ref="B34" dT="2026-01-15T04:51:43.20" personId="{F1FF34E4-A910-42A3-B1F0-2AC838CF81E1}" id="{EACA7E92-1893-4FA3-8E21-54B4B24A3520}">
     <text>首套住房，若面积在 140 平米（含）以下，契税征收比例为 1%；若面积超过 140 平米，契税征收比例为 1.5%</text>
   </threadedComment>
 </ThreadedComments>
@@ -2187,426 +2222,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="O7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="10" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="15" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="11" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="16" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+    </row>
+    <row r="3" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-    </row>
-    <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="39" t="s">
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+    </row>
+    <row r="4" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="4" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="38">
+      <c r="O4" s="128">
         <v>110</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="38">
-        <v>20</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="129"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="176">
-        <f>N3-N4</f>
-        <v>90</v>
-      </c>
-      <c r="O5" s="176"/>
-      <c r="P5" s="3"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="175"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="128">
+        <v>20</v>
+      </c>
+      <c r="P5" s="129"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="81">
-        <v>30</v>
-      </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="3"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="2:23" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B6" s="175"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="131">
+        <f>O4-O5</f>
+        <v>90</v>
+      </c>
+      <c r="P6" s="132"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="78">
-        <v>22000</v>
-      </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="2"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="175"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="155">
+        <v>30</v>
+      </c>
+      <c r="P7" s="156"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="78">
-        <v>11500</v>
-      </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="175"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="157">
+        <v>22000</v>
+      </c>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="78">
-        <v>7500</v>
-      </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="175"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="157">
+        <v>11500</v>
+      </c>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="175"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="157">
+        <v>7500</v>
+      </c>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="16">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="16">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="175"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="110">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="1"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="80">
-        <v>600000</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="79">
-        <v>600000</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="175"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="110">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="170" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="159">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="175"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="49">
+        <v>600000</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="111">
+        <v>600000</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="162" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="M14" s="163">
-        <f>N7*N3*M13</f>
-        <v>484000</v>
-      </c>
-      <c r="N14" s="164"/>
-      <c r="O14" s="165"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="5"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="175"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="162">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="163"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="175"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2615,1332 +2629,1356 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="162" t="str">
-        <f t="shared" ref="L15:L16" si="0">M8</f>
+      <c r="K15" s="5"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="108" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="N15" s="165">
+        <f>O8*O4*N14</f>
+        <v>484000</v>
+      </c>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="175"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="108" t="str">
+        <f t="shared" ref="M16:M17" si="0">N9</f>
         <v>佛山</v>
       </c>
-      <c r="M15" s="163">
-        <f>N8*N3*M13</f>
+      <c r="N16" s="165">
+        <f>O9*O4*N14</f>
         <v>253000</v>
       </c>
-      <c r="N15" s="164"/>
-      <c r="O15" s="165"/>
-    </row>
-    <row r="16" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="166" t="str">
+      <c r="O16" s="166"/>
+      <c r="P16" s="167"/>
+    </row>
+    <row r="17" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="176"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="112" t="str">
         <f t="shared" si="0"/>
         <v>茂名</v>
       </c>
-      <c r="M16" s="167">
-        <f>N9*N3*M13</f>
+      <c r="N17" s="168">
+        <f>O10*O4*N14</f>
         <v>165000</v>
       </c>
-      <c r="N16" s="168"/>
-      <c r="O16" s="169"/>
-    </row>
-    <row r="17" spans="1:15" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="158" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74" t="s">
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
+    </row>
+    <row r="18" spans="2:16" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="M18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="74" t="s">
+      <c r="O18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="74" t="s">
+      <c r="P18" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66" t="str">
-        <f>M7</f>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="124">
-        <f>M12</f>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="89">
+        <f>N13</f>
         <v>600000</v>
       </c>
-      <c r="O18" s="125"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68" t="str">
-        <f>M8</f>
+      <c r="P19" s="90"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="127"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="83">
-        <f>O12</f>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51">
+        <f>P13</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68" t="str">
-        <f>M9</f>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="127"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="83">
-        <f>O12</f>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51">
+        <f>P13</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70" t="str">
-        <f>M7</f>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L21" s="84">
-        <f>N3*N7-M14</f>
+      <c r="M22" s="52">
+        <f>O4*O8-N15</f>
         <v>1936000</v>
       </c>
-      <c r="M21" s="84">
-        <f>L21</f>
+      <c r="N22" s="52">
+        <f>M22</f>
         <v>1936000</v>
       </c>
-      <c r="N21" s="84">
-        <f>IF(M21-N18&lt;0,0,M21-N18)</f>
+      <c r="O22" s="52">
+        <f>IF(N22-O19&lt;0,0,N22-O19)</f>
         <v>1336000</v>
       </c>
-      <c r="O21" s="85"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70" t="str">
-        <f>M8</f>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="119"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L22" s="84">
-        <f>N3*N8-M15</f>
+      <c r="M23" s="52">
+        <f>O4*O9-N16</f>
         <v>1012000</v>
       </c>
-      <c r="M22" s="84">
-        <f>L22</f>
+      <c r="N23" s="52">
+        <f>M23</f>
         <v>1012000</v>
       </c>
-      <c r="N22" s="86"/>
-      <c r="O22" s="87">
-        <f>IF(M22-O19&lt;0,0,M22-O19)</f>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55">
+        <f>IF(N23-P20&lt;0,0,N23-P20)</f>
         <v>412000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72" t="str">
-        <f>M9</f>
+    <row r="24" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="120"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L23" s="126">
-        <f>N3*N9-M16</f>
+      <c r="M24" s="91">
+        <f>O4*O10-N17</f>
         <v>660000</v>
       </c>
-      <c r="M23" s="126">
-        <f>L23</f>
+      <c r="N24" s="91">
+        <f>M24</f>
         <v>660000</v>
       </c>
-      <c r="N23" s="127"/>
-      <c r="O23" s="128">
-        <f>IF(M23-O20&lt;0,0,M23-O20)</f>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93">
+        <f>IF(N24-P21&lt;0,0,N24-P21)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26">
-        <f>M21</f>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25">
+        <f>N22</f>
         <v>1936000</v>
       </c>
-      <c r="D24" s="26">
-        <f>N18</f>
-        <v>600000</v>
-      </c>
-      <c r="E24" s="26">
-        <f>N21</f>
-        <v>1336000</v>
-      </c>
-      <c r="F24" s="27">
-        <f>M10</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G24" s="27">
-        <f>O10</f>
-        <v>0.03</v>
-      </c>
-      <c r="H24" s="27">
-        <f>M11</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I24" s="27">
-        <f>O11</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J24" s="28">
-        <f>N6</f>
-        <v>30</v>
-      </c>
-      <c r="K24" s="25" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L24" s="129">
-        <f>-PMT(F24/12,J24*12,C24)</f>
-        <v>8693.5051559788426</v>
-      </c>
-      <c r="M24" s="129">
-        <f>-PMT(G24/12,J24*12,C24)</f>
-        <v>8162.2540930021614</v>
-      </c>
-      <c r="N24" s="129">
-        <f>(-PMT(H24/12,J24*12,D24))+(-PMT(F24/12,J24*12,E24))</f>
-        <v>8401.275298344106</v>
-      </c>
-      <c r="O24" s="130"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11">
-        <f>M22</f>
-        <v>1012000</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="E25" s="25">
         <f>O19</f>
         <v>600000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="25">
         <f>O22</f>
+        <v>1336000</v>
+      </c>
+      <c r="G25" s="26">
+        <f>N11</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H25" s="26">
+        <f>P11</f>
+        <v>0.03</v>
+      </c>
+      <c r="I25" s="26">
+        <f>N12</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J25" s="26">
+        <f>P12</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K25" s="27">
+        <f>O7</f>
+        <v>30</v>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M25" s="94">
+        <f>-PMT(G25/12,K25*12,D25)</f>
+        <v>8693.5051559788426</v>
+      </c>
+      <c r="N25" s="94">
+        <f>-PMT(H25/12,K25*12,D25)</f>
+        <v>8162.2540930021614</v>
+      </c>
+      <c r="O25" s="94">
+        <f>(-PMT(I25/12,K25*12,E25))+(-PMT(G25/12,K25*12,F25))</f>
+        <v>8401.275298344106</v>
+      </c>
+      <c r="P25" s="95"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="154"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10">
+        <f>N23</f>
+        <v>1012000</v>
+      </c>
+      <c r="E26" s="10">
+        <f>P20</f>
+        <v>600000</v>
+      </c>
+      <c r="F26" s="10">
+        <f>P23</f>
         <v>412000</v>
       </c>
-      <c r="F25" s="12">
-        <f>M10</f>
+      <c r="G26" s="11">
+        <f>N11</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G25" s="12">
-        <f>O10</f>
+      <c r="H26" s="11">
+        <f>P11</f>
         <v>0.03</v>
       </c>
-      <c r="H25" s="12">
-        <f>M11</f>
+      <c r="I26" s="11">
+        <f>N12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I25" s="12">
-        <f>O11</f>
+      <c r="J26" s="11">
+        <f>P12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J25" s="10">
-        <f>N6</f>
+      <c r="K26" s="9">
+        <f>O7</f>
         <v>30</v>
       </c>
-      <c r="K25" s="10" t="str">
-        <f>M8</f>
+      <c r="L26" s="9" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L25" s="88">
-        <f>-PMT(F25/12,J25*12,C25)</f>
+      <c r="M26" s="56">
+        <f>-PMT(G26/12,K26*12,D26)</f>
         <v>4544.3322406253037</v>
       </c>
-      <c r="M25" s="88">
-        <f>-PMT(G25/12,J25*12,C25)</f>
+      <c r="N26" s="56">
+        <f>-PMT(H26/12,K26*12,D26)</f>
         <v>4266.6328213420393</v>
       </c>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90">
-        <f>(-PMT(I25/12,J25*12,D25))+(-PMT(F25/12,J25*12,E25))</f>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58">
+        <f>(-PMT(J26/12,K26*12,E26))+(-PMT(G26/12,K26*12,F26))</f>
         <v>4252.1023829905671</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11">
-        <f>M23</f>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="154"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10">
+        <f>N24</f>
         <v>660000</v>
       </c>
-      <c r="D26" s="11">
-        <f>O20</f>
+      <c r="E27" s="10">
+        <f>P21</f>
         <v>600000</v>
       </c>
-      <c r="E26" s="11">
-        <f>O23</f>
+      <c r="F27" s="10">
+        <f>P24</f>
         <v>60000</v>
       </c>
-      <c r="F26" s="12">
-        <f>M10</f>
+      <c r="G27" s="11">
+        <f>N11</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G26" s="12">
-        <f>O10</f>
+      <c r="H27" s="11">
+        <f>P11</f>
         <v>0.03</v>
       </c>
-      <c r="H26" s="12">
-        <f>M11</f>
+      <c r="I27" s="11">
+        <f>N12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I26" s="12">
-        <f>O11</f>
+      <c r="J27" s="11">
+        <f>P12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>N6</f>
+      <c r="K27" s="9">
+        <f>O7</f>
         <v>30</v>
       </c>
-      <c r="K26" s="10" t="str">
-        <f>M9</f>
+      <c r="L27" s="9" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L26" s="88">
-        <f>-PMT(F26/12,J26*12,C26)</f>
+      <c r="M27" s="56">
+        <f>-PMT(G27/12,K27*12,D27)</f>
         <v>2963.6949395382417</v>
       </c>
-      <c r="M26" s="88">
-        <f>-PMT(G26/12,J26*12,C26)</f>
+      <c r="N27" s="56">
+        <f>-PMT(H27/12,K27*12,D27)</f>
         <v>2782.5866226143735</v>
       </c>
-      <c r="N26" s="89"/>
-      <c r="O26" s="90">
-        <f>(-PMT(I26/12,J26*12,D26))+(-PMT(F26/12,J26*12,E26))</f>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58">
+        <f>(-PMT(J27/12,K27*12,E27))+(-PMT(G27/12,K27*12,F27))</f>
         <v>2671.4650819035051</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17">
-        <f>M21</f>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16">
+        <f>N22</f>
         <v>1936000</v>
       </c>
-      <c r="D27" s="18">
-        <f>N18</f>
-        <v>600000</v>
-      </c>
-      <c r="E27" s="18">
-        <f>N21</f>
-        <v>1336000</v>
-      </c>
-      <c r="F27" s="19">
-        <f>M10</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G27" s="19">
-        <f>O10</f>
-        <v>0.03</v>
-      </c>
-      <c r="H27" s="19">
-        <f>M11</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I27" s="19">
-        <f>O11</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J27" s="17">
-        <f>N6</f>
-        <v>30</v>
-      </c>
-      <c r="K27" s="17" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L27" s="91">
-        <f>-(PMT(F27/12,J27*12,C27))*12*J27-M21</f>
-        <v>1193661.8561523836</v>
-      </c>
-      <c r="M27" s="91">
-        <f>-(PMT(G27/12,J27*12,C27))*12*J27-M21</f>
-        <v>1002411.4734807783</v>
-      </c>
-      <c r="N27" s="91">
-        <f>(-(PMT(H27/12,J27*12,D27))*12*J27-N18)+(-(PMT(F27/12,J27*12,E27))*12*J27-N21)</f>
-        <v>1088459.1074038777</v>
-      </c>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21">
-        <f>M22</f>
-        <v>1012000</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="E28" s="17">
         <f>O19</f>
         <v>600000</v>
       </c>
-      <c r="E28" s="20">
+      <c r="F28" s="17">
         <f>O22</f>
+        <v>1336000</v>
+      </c>
+      <c r="G28" s="18">
+        <f>N11</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H28" s="18">
+        <f>P11</f>
+        <v>0.03</v>
+      </c>
+      <c r="I28" s="18">
+        <f>N12</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J28" s="18">
+        <f>P12</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K28" s="16">
+        <f>O7</f>
+        <v>30</v>
+      </c>
+      <c r="L28" s="16" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M28" s="59">
+        <f>-(PMT(G28/12,K28*12,D28))*12*K28-N22</f>
+        <v>1193661.8561523836</v>
+      </c>
+      <c r="N28" s="59">
+        <f>-(PMT(H28/12,K28*12,D28))*12*K28-N22</f>
+        <v>1002411.4734807783</v>
+      </c>
+      <c r="O28" s="59">
+        <f>(-(PMT(I28/12,K28*12,E28))*12*K28-O19)+(-(PMT(G28/12,K28*12,F28))*12*K28-O22)</f>
+        <v>1088459.1074038777</v>
+      </c>
+      <c r="P28" s="60"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20">
+        <f>N23</f>
+        <v>1012000</v>
+      </c>
+      <c r="E29" s="19">
+        <f>P20</f>
+        <v>600000</v>
+      </c>
+      <c r="F29" s="19">
+        <f>P23</f>
         <v>412000</v>
       </c>
-      <c r="F28" s="19">
-        <f>M10</f>
+      <c r="G29" s="18">
+        <f>N11</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G28" s="19">
-        <f>O10</f>
+      <c r="H29" s="18">
+        <f>P11</f>
         <v>0.03</v>
       </c>
-      <c r="H28" s="19">
-        <f>M11</f>
+      <c r="I29" s="18">
+        <f>N12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I28" s="19">
-        <f>O11</f>
+      <c r="J29" s="18">
+        <f>P12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J28" s="21">
-        <f>N6</f>
+      <c r="K29" s="20">
+        <f>O7</f>
         <v>30</v>
       </c>
-      <c r="K28" s="21" t="str">
-        <f>M8</f>
+      <c r="L29" s="20" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L28" s="91">
-        <f>-(PMT(F28/12,J28*12,C28))*12*J28-M22</f>
+      <c r="M29" s="59">
+        <f>-(PMT(G29/12,K29*12,D29))*12*K29-N23</f>
         <v>623959.60662510945</v>
       </c>
-      <c r="M28" s="91">
-        <f>-(PMT(G28/12,J28*12,C28))*12*J28-M22</f>
+      <c r="N29" s="59">
+        <f>-(PMT(H29/12,K29*12,D29))*12*K29-N23</f>
         <v>523987.81568313437</v>
       </c>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94">
-        <f>(-(PMT(I28/12,J28*12,D28))*12*J28-O19)+(-(PMT(F28/12,J28*12,E28))*12*J28-O22)</f>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62">
+        <f>(-(PMT(J29/12,K29*12,E29))*12*K29-P20)+(-(PMT(G29/12,K29*12,F29))*12*K29-P23)</f>
         <v>518756.85787660407</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21">
-        <f>M23</f>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="122"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20">
+        <f>N24</f>
         <v>660000</v>
       </c>
-      <c r="D29" s="20">
-        <f>O20</f>
+      <c r="E30" s="19">
+        <f>P21</f>
         <v>600000</v>
       </c>
-      <c r="E29" s="20">
-        <f>O23</f>
+      <c r="F30" s="19">
+        <f>P24</f>
         <v>60000</v>
       </c>
-      <c r="F29" s="19">
-        <f>M10</f>
+      <c r="G30" s="18">
+        <f>N11</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G29" s="19">
-        <f>O10</f>
+      <c r="H30" s="18">
+        <f>P11</f>
         <v>0.03</v>
       </c>
-      <c r="H29" s="19">
-        <f>M11</f>
+      <c r="I30" s="18">
+        <f>N12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I29" s="19">
-        <f>O11</f>
+      <c r="J30" s="18">
+        <f>P12</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J29" s="21">
-        <f>N6</f>
+      <c r="K30" s="20">
+        <f>O7</f>
         <v>30</v>
       </c>
-      <c r="K29" s="21" t="str">
-        <f>M9</f>
+      <c r="L30" s="20" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L29" s="91">
-        <f>-(PMT(F29/12,J29*12,C29))*12*J29-M23</f>
+      <c r="M30" s="59">
+        <f>-(PMT(G30/12,K30*12,D30))*12*K30-N24</f>
         <v>406930.17823376693</v>
       </c>
-      <c r="M29" s="91">
-        <f>-(PMT(G29/12,J29*12,C29))*12*J29-M23</f>
+      <c r="N30" s="59">
+        <f>-(PMT(H30/12,K30*12,D30))*12*K30-N24</f>
         <v>341731.18414117442</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94">
-        <f>(-(PMT(I29/12,J29*12,D29))*12*J29-O20)+(-(PMT(F29/12,J29*12,E29))*12*J29-O23)</f>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62">
+        <f>(-(PMT(J30/12,K30*12,E30))*12*K30-P21)+(-(PMT(G30/12,K30*12,F30))*12*K30-P24)</f>
         <v>301727.42948526167</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="21">
+        <f>O4*O8</f>
+        <v>2420000</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M31" s="63">
+        <f>C31+M28</f>
+        <v>3613661.8561523836</v>
+      </c>
+      <c r="N31" s="63">
+        <f>C31+N28</f>
+        <v>3422411.4734807783</v>
+      </c>
+      <c r="O31" s="63">
+        <f>C31+O28</f>
+        <v>3508459.1074038777</v>
+      </c>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="124"/>
+      <c r="C32" s="21">
+        <f>O4*O9</f>
+        <v>1265000</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21" t="str">
+        <f>N9</f>
+        <v>佛山</v>
+      </c>
+      <c r="M32" s="63">
+        <f>C32+M29</f>
+        <v>1888959.6066251094</v>
+      </c>
+      <c r="N32" s="63">
+        <f>C32+N29</f>
+        <v>1788987.8156831344</v>
+      </c>
+      <c r="O32" s="65"/>
+      <c r="P32" s="66">
+        <f>C32+P29</f>
+        <v>1783756.857876604</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="125"/>
+      <c r="C33" s="101">
+        <f>O4*O10</f>
+        <v>825000</v>
+      </c>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101" t="str">
+        <f>N10</f>
+        <v>茂名</v>
+      </c>
+      <c r="M33" s="103">
+        <f>C33+M30</f>
+        <v>1231930.1782337669</v>
+      </c>
+      <c r="N33" s="103">
+        <f>C33+N30</f>
+        <v>1166731.1841411744</v>
+      </c>
+      <c r="O33" s="104"/>
+      <c r="P33" s="105">
+        <f>C33+P30</f>
+        <v>1126727.4294852617</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="22">
-        <f>N3*N7</f>
-        <v>2420000</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22" t="str">
-        <f>M7</f>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L30" s="95">
-        <f>B30+L27</f>
-        <v>3613661.8561523836</v>
-      </c>
-      <c r="M30" s="95">
-        <f>B30+M27</f>
-        <v>3422411.4734807783</v>
-      </c>
-      <c r="N30" s="95">
-        <f>B30+N27</f>
-        <v>3508459.1074038777</v>
-      </c>
-      <c r="O30" s="96"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="22">
-        <f>N3*N8</f>
-        <v>1265000</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22" t="str">
-        <f>M8</f>
+      <c r="M34" s="149">
+        <f>IF(O4&lt;=140,C31*0.01,IF(O4&gt;140,C31*0.015))</f>
+        <v>24200</v>
+      </c>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="150"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="148"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L31" s="95">
-        <f>B31+L28</f>
-        <v>1888959.6066251094</v>
-      </c>
-      <c r="M31" s="95">
-        <f>B31+M28</f>
-        <v>1788987.8156831344</v>
-      </c>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98">
-        <f>B31+O28</f>
-        <v>1783756.857876604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="141"/>
-      <c r="B32" s="142">
-        <f>N3*N9</f>
-        <v>825000</v>
-      </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142" t="str">
-        <f>M9</f>
-        <v>茂名</v>
-      </c>
-      <c r="L32" s="144">
-        <f>B32+L29</f>
-        <v>1231930.1782337669</v>
-      </c>
-      <c r="M32" s="144">
-        <f>B32+M29</f>
-        <v>1166731.1841411744</v>
-      </c>
-      <c r="N32" s="145"/>
-      <c r="O32" s="146">
-        <f>B32+O29</f>
-        <v>1126727.4294852617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L33" s="150">
-        <f>IF(N3&lt;=140,B30*0.01,IF(N3&gt;140,B30*0.015))</f>
-        <v>24200</v>
-      </c>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="151"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153" t="str">
-        <f>M8</f>
-        <v>佛山</v>
-      </c>
-      <c r="L34" s="155">
-        <f>IF(N3&lt;=140,B31*0.01,IF(N3&gt;140,B31*0.015))</f>
+      <c r="M35" s="151">
+        <f>IF(O4&lt;=140,C32*0.01,IF(O4&gt;140,C32*0.015))</f>
         <v>12650</v>
       </c>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="156"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153" t="str">
-        <f>M9</f>
-        <v>茂名</v>
-      </c>
-      <c r="L35" s="155">
-        <f>IF(N3&lt;=140,B32*0.01,IF(N3&gt;140,B32*0.015))</f>
-        <v>8250</v>
-      </c>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="156"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="152"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="148"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L36" s="99">
-        <v>0</v>
-      </c>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="101"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="str">
+        <f>N10</f>
+        <v>茂名</v>
+      </c>
+      <c r="M36" s="151">
+        <f>IF(O4&lt;=140,C33*0.01,IF(O4&gt;140,C33*0.015))</f>
+        <v>8250</v>
+      </c>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="152"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="136" t="s">
+        <v>36</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="str">
-        <f>M8</f>
-        <v>佛山</v>
-      </c>
-      <c r="L37" s="99">
+      <c r="F37" s="5"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M37" s="139">
         <v>0</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="5"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="141"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="137"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="str">
-        <f>M9</f>
-        <v>茂名</v>
-      </c>
-      <c r="L38" s="99">
+      <c r="F38" s="5"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="str">
+        <f>N9</f>
+        <v>佛山</v>
+      </c>
+      <c r="M38" s="139">
         <v>0</v>
       </c>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="101"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="157" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="141"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="180"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L39" s="99">
+      <c r="F39" s="5"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="str">
+        <f>N10</f>
+        <v>茂名</v>
+      </c>
+      <c r="M39" s="139">
         <v>0</v>
       </c>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="101"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="5"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="141"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="136" t="s">
+        <v>37</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="str">
-        <f>M8</f>
-        <v>佛山</v>
-      </c>
-      <c r="L40" s="99">
+      <c r="F40" s="5"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M40" s="139">
         <v>0</v>
       </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="101"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="5"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="141"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="137"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5" t="str">
-        <f>M9</f>
-        <v>茂名</v>
-      </c>
-      <c r="L41" s="99">
+      <c r="F41" s="5"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="str">
+        <f>N9</f>
+        <v>佛山</v>
+      </c>
+      <c r="M41" s="139">
         <v>0</v>
       </c>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="101"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="157" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="5"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="141"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="180"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5" t="str">
-        <f>M7</f>
-        <v>广州</v>
-      </c>
-      <c r="L42" s="99">
+      <c r="F42" s="5"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="str">
+        <f>N10</f>
+        <v>茂名</v>
+      </c>
+      <c r="M42" s="139">
         <v>0</v>
       </c>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="101"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="5"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="141"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="136" t="s">
+        <v>38</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5" t="str">
-        <f>M8</f>
+      <c r="F43" s="5"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="str">
+        <f>N8</f>
+        <v>广州</v>
+      </c>
+      <c r="M43" s="139">
+        <v>0</v>
+      </c>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="141"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="137"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L43" s="99">
+      <c r="M44" s="139">
         <v>0</v>
       </c>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="101"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="131"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="str">
-        <f>M9</f>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="141"/>
+    </row>
+    <row r="45" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="138"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L44" s="133">
+      <c r="M45" s="142">
         <v>0</v>
       </c>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="135"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137" t="str">
-        <f>M7</f>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="144"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L45" s="139">
-        <f>L30+L33+L36+L39+L42</f>
+      <c r="M46" s="99">
+        <f>M31+M34+M37+M40+M43</f>
         <v>3637861.8561523836</v>
       </c>
-      <c r="M45" s="139">
-        <f>M30+L33+L36+L39+L42</f>
+      <c r="N46" s="99">
+        <f>N31+M34+M37+M40+M43</f>
         <v>3446611.4734807783</v>
       </c>
-      <c r="N45" s="139">
-        <f>N30+L33+L36+L39+L42</f>
+      <c r="O46" s="99">
+        <f>O31+M34+M37+M40+M43</f>
         <v>3532659.1074038777</v>
       </c>
-      <c r="O45" s="140"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30" t="str">
-        <f>M8</f>
+      <c r="P46" s="100"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="114"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L46" s="102">
-        <f t="shared" ref="L46:L47" si="1">L31+L34+L37+L40+L43</f>
+      <c r="M47" s="67">
+        <f t="shared" ref="M47:M48" si="1">M32+M35+M38+M41+M44</f>
         <v>1901609.6066251094</v>
       </c>
-      <c r="M46" s="102">
-        <f>M31+L34+L37+L40+L43</f>
+      <c r="N47" s="67">
+        <f>N32+M35+M38+M41+M44</f>
         <v>1801637.8156831344</v>
       </c>
-      <c r="N46" s="103"/>
-      <c r="O46" s="104">
-        <f>O31+L34+L37+L40+L43</f>
+      <c r="O47" s="68"/>
+      <c r="P47" s="69">
+        <f>P32+M35+M38+M41+M44</f>
         <v>1796406.857876604</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30" t="str">
-        <f>M9</f>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="115"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L47" s="102">
+      <c r="M48" s="67">
         <f t="shared" si="1"/>
         <v>1240180.1782337669</v>
       </c>
-      <c r="M47" s="102">
-        <f>M32+L35+L38+L41+L44</f>
+      <c r="N48" s="67">
+        <f>N33+M36+M39+M42+M45</f>
         <v>1174981.1841411744</v>
       </c>
-      <c r="N47" s="103"/>
-      <c r="O47" s="104">
-        <f>O32+L35+L38+L41+L44</f>
+      <c r="O48" s="68"/>
+      <c r="P48" s="69">
+        <f>P33+M36+M39+M42+M45</f>
         <v>1134977.4294852617</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50" t="str">
-        <f>M7</f>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L48" s="105">
-        <f>L45/N5</f>
+      <c r="M49" s="70">
+        <f>M46/O6</f>
         <v>40420.687290582042</v>
       </c>
-      <c r="M48" s="105">
-        <f>M45/N5</f>
+      <c r="N49" s="70">
+        <f>N46/O6</f>
         <v>38295.683038675314</v>
       </c>
-      <c r="N48" s="105">
-        <f>N45/N5</f>
+      <c r="O49" s="70">
+        <f>O46/O6</f>
         <v>39251.767860043088</v>
       </c>
-      <c r="O48" s="106"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50" t="str">
-        <f>M8</f>
+      <c r="P49" s="71"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="179"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L49" s="105">
-        <f>L46/N5</f>
+      <c r="M50" s="70">
+        <f>M47/O6</f>
         <v>21128.995629167883</v>
       </c>
-      <c r="M49" s="105">
-        <f>M46/N5</f>
+      <c r="N50" s="70">
+        <f>N47/O6</f>
         <v>20018.197952034825</v>
       </c>
-      <c r="N49" s="107"/>
-      <c r="O49" s="108">
-        <f>O46/N5</f>
+      <c r="O50" s="72"/>
+      <c r="P50" s="73">
+        <f>P47/O6</f>
         <v>19960.076198628933</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50" t="str">
-        <f>M9</f>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="179"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L50" s="105">
-        <f>L47/N5</f>
+      <c r="M51" s="70">
+        <f>M48/O6</f>
         <v>13779.779758152967</v>
       </c>
-      <c r="M50" s="105">
-        <f>M47/N5</f>
+      <c r="N51" s="70">
+        <f>N48/O6</f>
         <v>13055.346490457494</v>
       </c>
-      <c r="N50" s="107"/>
-      <c r="O50" s="108">
-        <f>O47/N5</f>
+      <c r="O51" s="72"/>
+      <c r="P51" s="73">
+        <f>P48/O6</f>
         <v>12610.860327614018</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54" t="str">
-        <f>M7</f>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L51" s="109">
-        <f>L45/50/12</f>
+      <c r="M52" s="74">
+        <f>M46/50/12</f>
         <v>6063.1030935873059</v>
       </c>
-      <c r="M51" s="109">
-        <f>M45/50/12</f>
+      <c r="N52" s="74">
+        <f>N46/50/12</f>
         <v>5744.3524558012969</v>
       </c>
-      <c r="N51" s="109">
-        <f>N45/50/12</f>
+      <c r="O52" s="74">
+        <f>O46/50/12</f>
         <v>5887.7651790064629</v>
       </c>
-      <c r="O51" s="110"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54" t="str">
-        <f>M8</f>
+      <c r="P52" s="75"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="178"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L52" s="109">
-        <f t="shared" ref="L52:M53" si="2">L46/50/12</f>
+      <c r="M53" s="74">
+        <f t="shared" ref="M53:N54" si="2">M47/50/12</f>
         <v>3169.3493443751827</v>
       </c>
-      <c r="M52" s="109">
+      <c r="N53" s="74">
         <f t="shared" si="2"/>
         <v>3002.7296928052237</v>
       </c>
-      <c r="N52" s="111"/>
-      <c r="O52" s="112">
-        <f>O46/50/12</f>
+      <c r="O53" s="76"/>
+      <c r="P53" s="77">
+        <f>P47/50/12</f>
         <v>2994.0114297943401</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="57" t="str">
-        <f>M9</f>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="178"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L53" s="113">
+      <c r="M54" s="78">
         <f t="shared" si="2"/>
         <v>2066.9669637229449</v>
       </c>
-      <c r="M53" s="113">
+      <c r="N54" s="78">
         <f t="shared" si="2"/>
         <v>1958.3019735686239</v>
       </c>
-      <c r="N53" s="114"/>
-      <c r="O53" s="115">
-        <f>O47/50/12</f>
+      <c r="O54" s="79"/>
+      <c r="P54" s="80">
+        <f>P48/50/12</f>
         <v>1891.629049142103</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="59" t="str">
-        <f>M7</f>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39" t="str">
+        <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="L54" s="116">
-        <f>L45/30/12</f>
+      <c r="M55" s="81">
+        <f>M46/30/12</f>
         <v>10105.17182264551</v>
       </c>
-      <c r="M54" s="116">
-        <f>M45/30/12</f>
+      <c r="N55" s="81">
+        <f>N46/30/12</f>
         <v>9573.9207596688284</v>
       </c>
-      <c r="N54" s="116">
-        <f>N45/30/12</f>
+      <c r="O55" s="81">
+        <f>O46/30/12</f>
         <v>9812.941965010772</v>
       </c>
-      <c r="O54" s="117"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59" t="str">
-        <f>M8</f>
+      <c r="P55" s="82"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="160"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39" t="str">
+        <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="L55" s="116">
-        <f>L46/30/12</f>
+      <c r="M56" s="81">
+        <f>M47/30/12</f>
         <v>5282.2489072919707</v>
       </c>
-      <c r="M55" s="116">
-        <f>M46/30/12</f>
+      <c r="N56" s="81">
+        <f>N47/30/12</f>
         <v>5004.5494880087072</v>
       </c>
-      <c r="N55" s="118"/>
-      <c r="O55" s="119">
-        <f>O46/30/12</f>
+      <c r="O56" s="83"/>
+      <c r="P56" s="84">
+        <f>P47/30/12</f>
         <v>4990.0190496572332</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="64" t="str">
-        <f>M9</f>
+    <row r="57" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="161"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41" t="str">
+        <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="L56" s="120">
-        <f>L47/30/12</f>
+      <c r="M57" s="85">
+        <f>M48/30/12</f>
         <v>3444.9449395382417</v>
       </c>
-      <c r="M56" s="120">
-        <f>M47/30/12</f>
+      <c r="N57" s="85">
+        <f>N48/30/12</f>
         <v>3263.8366226143735</v>
       </c>
-      <c r="N56" s="121"/>
-      <c r="O56" s="122">
-        <f>O47/30/12</f>
+      <c r="O57" s="86"/>
+      <c r="P57" s="87">
+        <f>P48/30/12</f>
         <v>3152.7150819035046</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zcjy8tUs2kvr11zkzUk0X3NqNjvU4/tLDYH+Ub9sc/91FcIXzAT3MCk59bkPhx9VNR+viAnBDC6GnEBbOeKISg==" saltValue="nv/dFClRmFDpnXvvEq2Q5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="N3:O4 N6:O9 M7:M12 O10:O12 L36:O44" name="数据输入区"/>
+    <protectedRange sqref="O4:P5 O7:P10 N8:N13 P11:P13 M37:P45" name="数据输入区"/>
   </protectedRanges>
   <mergeCells count="45">
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/贷款买房真实价格计算器.xlsx
+++ b/贷款买房真实价格计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC271F-D7F8-4A04-A4F6-16AFA61739C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93CE5C-B941-4796-B587-94EE4A52295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,6 +1710,132 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,9 +1885,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,24 +1902,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,114 +1912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2225,7 +2225,7 @@
   <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P7"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2243,47 +2243,47 @@
   <sheetData>
     <row r="1" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
     </row>
     <row r="3" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="145" t="s">
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="141"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="128" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="6"/>
@@ -2295,17 +2295,17 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="130" t="s">
+      <c r="L4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="130"/>
+      <c r="M4" s="148"/>
       <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="128">
+      <c r="O4" s="170">
         <v>110</v>
       </c>
-      <c r="P4" s="129"/>
+      <c r="P4" s="171"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2315,7 +2315,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="175"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2325,15 +2325,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="170">
         <v>20</v>
       </c>
-      <c r="P5" s="129"/>
+      <c r="P5" s="171"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -2343,7 +2343,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="2:23" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B6" s="175"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2353,16 +2353,16 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="131">
+      <c r="O6" s="172">
         <f>O4-O5</f>
         <v>90</v>
       </c>
-      <c r="P6" s="132"/>
+      <c r="P6" s="173"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -2372,7 +2372,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="175"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2382,15 +2382,15 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="130" t="s">
+      <c r="L7" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="155">
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="151">
         <v>30</v>
       </c>
-      <c r="P7" s="156"/>
+      <c r="P7" s="152"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2400,7 +2400,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="175"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2410,7 +2410,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="130" t="s">
+      <c r="L8" s="148" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2419,10 +2419,10 @@
       <c r="N8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="157">
+      <c r="O8" s="153">
         <v>22000</v>
       </c>
-      <c r="P8" s="158"/>
+      <c r="P8" s="154"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2432,7 +2432,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2442,17 +2442,17 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="130"/>
+      <c r="L9" s="148"/>
       <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="157">
+      <c r="O9" s="153">
         <v>11500</v>
       </c>
-      <c r="P9" s="158"/>
+      <c r="P9" s="154"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2462,7 +2462,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="175"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2472,17 +2472,17 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="130"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="157">
+      <c r="O10" s="153">
         <v>7500</v>
       </c>
-      <c r="P10" s="158"/>
+      <c r="P10" s="154"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2492,7 +2492,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="175"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2502,7 +2502,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="148" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="13" t="s">
@@ -2526,7 +2526,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="175"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2536,7 +2536,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="130"/>
+      <c r="L12" s="148"/>
       <c r="M12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="175"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2568,7 +2568,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="130"/>
+      <c r="L13" s="148"/>
       <c r="M13" s="13" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="175"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2600,17 +2600,17 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="171" t="s">
+      <c r="L14" s="125" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="162">
+      <c r="N14" s="116">
         <v>0.2</v>
       </c>
-      <c r="O14" s="163"/>
-      <c r="P14" s="164"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="118"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2620,7 +2620,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="175"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2630,20 +2630,20 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="172"/>
+      <c r="L15" s="126"/>
       <c r="M15" s="108" t="str">
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="N15" s="165">
+      <c r="N15" s="119">
         <f>O8*O4*N14</f>
         <v>484000</v>
       </c>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="121"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="175"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2653,20 +2653,20 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="172"/>
+      <c r="L16" s="126"/>
       <c r="M16" s="108" t="str">
         <f t="shared" ref="M16:M17" si="0">N9</f>
         <v>佛山</v>
       </c>
-      <c r="N16" s="165">
+      <c r="N16" s="119">
         <f>O9*O4*N14</f>
         <v>253000</v>
       </c>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
     </row>
     <row r="17" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="176"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2676,17 +2676,17 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="173"/>
+      <c r="L17" s="127"/>
       <c r="M17" s="112" t="str">
         <f t="shared" si="0"/>
         <v>茂名</v>
       </c>
-      <c r="N17" s="168">
+      <c r="N17" s="122">
         <f>O10*O4*N14</f>
         <v>165000</v>
       </c>
-      <c r="O17" s="169"/>
-      <c r="P17" s="170"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
     </row>
     <row r="18" spans="2:16" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="109" t="s">
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="168" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="42"/>
@@ -2743,7 +2743,7 @@
       <c r="P19" s="90"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="127"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="127"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -2789,7 +2789,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="161" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="44"/>
@@ -2820,7 +2820,7 @@
       <c r="P22" s="53"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -2849,7 +2849,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="149" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="24"/>
@@ -2933,7 +2933,7 @@
       <c r="P25" s="95"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="154"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10">
         <f>N23</f>
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="154"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10">
         <f>N24</f>
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="163" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="16"/>
@@ -3094,7 +3094,7 @@
       <c r="P28" s="60"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="122"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20">
         <f>N23</f>
@@ -3147,7 +3147,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20">
         <f>N24</f>
@@ -3200,7 +3200,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="165" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="21">
@@ -3234,7 +3234,7 @@
       <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="124"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="21">
         <f>O4*O9</f>
         <v>1265000</v>
@@ -3266,7 +3266,7 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="125"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="101">
         <f>O4*O10</f>
         <v>825000</v>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="142" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="106"/>
@@ -3314,16 +3314,16 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M34" s="149">
+      <c r="M34" s="144">
         <f>IF(O4&lt;=140,C31*0.01,IF(O4&gt;140,C31*0.015))</f>
         <v>24200</v>
       </c>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="150"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="145"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="148"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3337,16 +3337,16 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M35" s="151">
+      <c r="M35" s="146">
         <f>IF(O4&lt;=140,C32*0.01,IF(O4&gt;140,C32*0.015))</f>
         <v>12650</v>
       </c>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="152"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="147"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="148"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3360,16 +3360,16 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M36" s="151">
+      <c r="M36" s="146">
         <f>IF(O4&lt;=140,C33*0.01,IF(O4&gt;140,C33*0.015))</f>
         <v>8250</v>
       </c>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="152"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="147"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="137" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="5"/>
@@ -3385,15 +3385,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M37" s="139">
+      <c r="M37" s="131">
         <v>0</v>
       </c>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="133"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3407,15 +3407,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M38" s="139">
+      <c r="M38" s="131">
         <v>0</v>
       </c>
-      <c r="N38" s="140"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="141"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="133"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="180"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3429,15 +3429,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M39" s="139">
+      <c r="M39" s="131">
         <v>0</v>
       </c>
-      <c r="N39" s="140"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="141"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="133"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="137" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5"/>
@@ -3453,15 +3453,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M40" s="139">
+      <c r="M40" s="131">
         <v>0</v>
       </c>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="141"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="133"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="137"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3475,15 +3475,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M41" s="139">
+      <c r="M41" s="131">
         <v>0</v>
       </c>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="141"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="133"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3497,15 +3497,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M42" s="139">
+      <c r="M42" s="131">
         <v>0</v>
       </c>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="141"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="133"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="137" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="5"/>
@@ -3521,15 +3521,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M43" s="139">
+      <c r="M43" s="131">
         <v>0</v>
       </c>
-      <c r="N43" s="140"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="141"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="133"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="137"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3543,15 +3543,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M44" s="139">
+      <c r="M44" s="131">
         <v>0</v>
       </c>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="141"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="133"/>
     </row>
     <row r="45" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="138"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -3565,15 +3565,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M45" s="142">
+      <c r="M45" s="178">
         <v>0</v>
       </c>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
-      <c r="P45" s="144"/>
+      <c r="N45" s="179"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="180"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="155" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="97"/>
@@ -3604,7 +3604,7 @@
       <c r="P46" s="100"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -3633,7 +3633,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="115"/>
+      <c r="B48" s="157"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -3662,7 +3662,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="179" t="s">
+      <c r="B49" s="136" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="31"/>
@@ -3693,7 +3693,7 @@
       <c r="P49" s="71"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="179"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="179"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="134" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="34"/>
@@ -3782,7 +3782,7 @@
       <c r="P52" s="75"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="178"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -3811,7 +3811,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="178"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -3840,7 +3840,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="159" t="s">
+      <c r="B55" s="113" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="38"/>
@@ -3871,7 +3871,7 @@
       <c r="P55" s="82"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="160"/>
+      <c r="B56" s="114"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -3900,7 +3900,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="161"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -3931,9 +3931,38 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="O4:P5 O7:P10 N8:N13 P11:P13 M37:P45" name="数据输入区"/>
+    <protectedRange sqref="O4:P5 O7:P10 N8:N13 P11:P13 N14 M37:P45" name="数据输入区"/>
   </protectedRanges>
   <mergeCells count="45">
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
@@ -3950,35 +3979,6 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/贷款买房真实价格计算器.xlsx
+++ b/贷款买房真实价格计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93CE5C-B941-4796-B587-94EE4A52295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E84BECB-0F4E-46D2-B200-54848B868E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,6 +1710,144 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1764,15 +1902,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1782,136 +1911,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2243,47 +2243,47 @@
   <sheetData>
     <row r="1" spans="2:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="140" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="174" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="6"/>
@@ -2295,17 +2295,17 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="148"/>
+      <c r="M4" s="130"/>
       <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="170">
+      <c r="O4" s="128">
         <v>110</v>
       </c>
-      <c r="P4" s="171"/>
+      <c r="P4" s="129"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2315,7 +2315,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="129"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2325,15 +2325,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="170">
+      <c r="O5" s="128">
         <v>20</v>
       </c>
-      <c r="P5" s="171"/>
+      <c r="P5" s="129"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -2343,7 +2343,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="2:23" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2353,16 +2353,16 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
       <c r="N6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="172">
+      <c r="O6" s="131">
         <f>O4-O5</f>
         <v>90</v>
       </c>
-      <c r="P6" s="173"/>
+      <c r="P6" s="132"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -2372,7 +2372,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="129"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2382,15 +2382,15 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="148" t="s">
+      <c r="L7" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="151">
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="155">
         <v>30</v>
       </c>
-      <c r="P7" s="152"/>
+      <c r="P7" s="156"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2400,7 +2400,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="129"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2410,7 +2410,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="148" t="s">
+      <c r="L8" s="130" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2419,10 +2419,10 @@
       <c r="N8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="153">
+      <c r="O8" s="157">
         <v>22000</v>
       </c>
-      <c r="P8" s="154"/>
+      <c r="P8" s="158"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2432,7 +2432,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2442,17 +2442,17 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="148"/>
+      <c r="L9" s="130"/>
       <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="153">
+      <c r="O9" s="157">
         <v>11500</v>
       </c>
-      <c r="P9" s="154"/>
+      <c r="P9" s="158"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2462,7 +2462,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="129"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2472,17 +2472,17 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="148"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="153">
+      <c r="O10" s="157">
         <v>7500</v>
       </c>
-      <c r="P10" s="154"/>
+      <c r="P10" s="158"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2492,7 +2492,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="129"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2502,7 +2502,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="148" t="s">
+      <c r="L11" s="130" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="13" t="s">
@@ -2526,7 +2526,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2536,7 +2536,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="148"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="129"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2568,7 +2568,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="148"/>
+      <c r="L13" s="130"/>
       <c r="M13" s="13" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="129"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2600,17 +2600,17 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="171" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="116">
+      <c r="N14" s="162">
         <v>0.2</v>
       </c>
-      <c r="O14" s="117"/>
-      <c r="P14" s="118"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="164"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2620,7 +2620,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="129"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2630,20 +2630,20 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="126"/>
+      <c r="L15" s="172"/>
       <c r="M15" s="108" t="str">
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="N15" s="119">
+      <c r="N15" s="165">
         <f>O8*O4*N14</f>
         <v>484000</v>
       </c>
-      <c r="O15" s="120"/>
-      <c r="P15" s="121"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="129"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2653,20 +2653,20 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="126"/>
+      <c r="L16" s="172"/>
       <c r="M16" s="108" t="str">
         <f t="shared" ref="M16:M17" si="0">N9</f>
         <v>佛山</v>
       </c>
-      <c r="N16" s="119">
+      <c r="N16" s="165">
         <f>O9*O4*N14</f>
         <v>253000</v>
       </c>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="167"/>
     </row>
     <row r="17" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2676,17 +2676,17 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="127"/>
+      <c r="L17" s="173"/>
       <c r="M17" s="112" t="str">
         <f t="shared" si="0"/>
         <v>茂名</v>
       </c>
-      <c r="N17" s="122">
+      <c r="N17" s="168">
         <f>O10*O4*N14</f>
         <v>165000</v>
       </c>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
     </row>
     <row r="18" spans="2:16" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="109" t="s">
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="168" t="s">
+      <c r="B19" s="126" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="42"/>
@@ -2737,13 +2737,13 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="89">
-        <f>N13</f>
+        <f>IF(C31-N15-N13&lt;0,IF(C31-N15&lt;0,0,C31-N15),N13)</f>
         <v>600000</v>
       </c>
       <c r="P19" s="90"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="169"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -2761,12 +2761,12 @@
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
       <c r="P20" s="51">
-        <f>P13</f>
+        <f>IF(C32-N16-P13&lt;0,IF(C32-N16&lt;0,0,C32-N16),P13)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="169"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -2784,12 +2784,12 @@
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="51">
-        <f>P13</f>
+        <f>IF(C33-N17-P13&lt;0,IF(C33-N17&lt;0,0,C33-N17),P13)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="119" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="44"/>
@@ -2806,7 +2806,7 @@
         <v>广州</v>
       </c>
       <c r="M22" s="52">
-        <f>O4*O8-N15</f>
+        <f>C31-N15</f>
         <v>1936000</v>
       </c>
       <c r="N22" s="52">
@@ -2820,7 +2820,7 @@
       <c r="P22" s="53"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="161"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -2835,7 +2835,7 @@
         <v>佛山</v>
       </c>
       <c r="M23" s="52">
-        <f>O4*O9-N16</f>
+        <f>C32-N16</f>
         <v>1012000</v>
       </c>
       <c r="N23" s="52">
@@ -2849,7 +2849,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="162"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2864,7 +2864,7 @@
         <v>茂名</v>
       </c>
       <c r="M24" s="91">
-        <f>O4*O10-N17</f>
+        <f>C33-N17</f>
         <v>660000</v>
       </c>
       <c r="N24" s="91">
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="153" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="24"/>
@@ -2933,7 +2933,7 @@
       <c r="P25" s="95"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="150"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10">
         <f>N23</f>
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="150"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10">
         <f>N24</f>
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="121" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="16"/>
@@ -3094,7 +3094,7 @@
       <c r="P28" s="60"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="164"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20">
         <f>N23</f>
@@ -3147,7 +3147,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="164"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20">
         <f>N24</f>
@@ -3200,7 +3200,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="123" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="21">
@@ -3234,7 +3234,7 @@
       <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="21">
         <f>O4*O9</f>
         <v>1265000</v>
@@ -3266,7 +3266,7 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="167"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="101">
         <f>O4*O10</f>
         <v>825000</v>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="147" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="106"/>
@@ -3314,16 +3314,16 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M34" s="144">
+      <c r="M34" s="149">
         <f>IF(O4&lt;=140,C31*0.01,IF(O4&gt;140,C31*0.015))</f>
         <v>24200</v>
       </c>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="145"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="150"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="143"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3337,16 +3337,16 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M35" s="146">
+      <c r="M35" s="151">
         <f>IF(O4&lt;=140,C32*0.01,IF(O4&gt;140,C32*0.015))</f>
         <v>12650</v>
       </c>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="147"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="152"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="143"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3360,16 +3360,16 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M36" s="146">
+      <c r="M36" s="151">
         <f>IF(O4&lt;=140,C33*0.01,IF(O4&gt;140,C33*0.015))</f>
         <v>8250</v>
       </c>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="147"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="152"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="136" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="5"/>
@@ -3385,15 +3385,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M37" s="131">
+      <c r="M37" s="139">
         <v>0</v>
       </c>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="133"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="141"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="138"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3407,15 +3407,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M38" s="131">
+      <c r="M38" s="139">
         <v>0</v>
       </c>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="133"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="141"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="139"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3429,15 +3429,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M39" s="131">
+      <c r="M39" s="139">
         <v>0</v>
       </c>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="133"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="141"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="136" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5"/>
@@ -3453,15 +3453,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M40" s="131">
+      <c r="M40" s="139">
         <v>0</v>
       </c>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="133"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="141"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="138"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3475,15 +3475,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M41" s="131">
+      <c r="M41" s="139">
         <v>0</v>
       </c>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="133"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="141"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="139"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3497,15 +3497,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M42" s="131">
+      <c r="M42" s="139">
         <v>0</v>
       </c>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="133"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="141"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="136" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="5"/>
@@ -3521,15 +3521,15 @@
         <f>N8</f>
         <v>广州</v>
       </c>
-      <c r="M43" s="131">
+      <c r="M43" s="139">
         <v>0</v>
       </c>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="133"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="141"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="138"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3543,15 +3543,15 @@
         <f>N9</f>
         <v>佛山</v>
       </c>
-      <c r="M44" s="131">
+      <c r="M44" s="139">
         <v>0</v>
       </c>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="133"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="141"/>
     </row>
     <row r="45" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="177"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -3565,15 +3565,15 @@
         <f>N10</f>
         <v>茂名</v>
       </c>
-      <c r="M45" s="178">
+      <c r="M45" s="142">
         <v>0</v>
       </c>
-      <c r="N45" s="179"/>
-      <c r="O45" s="179"/>
-      <c r="P45" s="180"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="144"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="113" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="97"/>
@@ -3604,7 +3604,7 @@
       <c r="P46" s="100"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="156"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -3633,7 +3633,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="157"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -3662,7 +3662,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="179" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="31"/>
@@ -3693,7 +3693,7 @@
       <c r="P49" s="71"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="136"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="136"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="177" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="34"/>
@@ -3782,7 +3782,7 @@
       <c r="P52" s="75"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="135"/>
+      <c r="B53" s="178"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -3811,7 +3811,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="135"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -3840,7 +3840,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="159" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="38"/>
@@ -3871,7 +3871,7 @@
       <c r="P55" s="82"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -3900,7 +3900,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="115"/>
+      <c r="B57" s="161"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -3934,6 +3934,35 @@
     <protectedRange sqref="O4:P5 O7:P10 N8:N13 P11:P13 N14 M37:P45" name="数据输入区"/>
   </protectedRanges>
   <mergeCells count="45">
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B22:B24"/>
@@ -3950,35 +3979,6 @@
     <mergeCell ref="M38:P38"/>
     <mergeCell ref="M44:P44"/>
     <mergeCell ref="M45:P45"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
